--- a/participants/participant_06/participant_06_task_orders.xlsx
+++ b/participants/participant_06/participant_06_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730205985165" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730224209254" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730224209254" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730224762533" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730225470898" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502911309970775" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911328572485" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502911328572485" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502911329198735" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502911329815648" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1649873020563886.csv</t>
+          <t>go_stims-16502911309611669.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730205836391.csv</t>
+          <t>GNG_stims-16502911309805152.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730205846364.csv</t>
+          <t>go_stims-16502911309825144.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730205975115.csv</t>
+          <t>GNG_stims-16502911309959836.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_8-16498730211086996.csv</t>
+          <t>TB-16502911323912656.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16498730222817488.csv</t>
+          <t>OB-16502911317623413.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16498730219141312.csv</t>
+          <t>TB-16502911328406.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16498730216127555.csv</t>
+          <t>OB-1650291131835157.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_4-16498730211364977.csv</t>
+          <t>ZB-match_7-16502911312902994.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16498730214168222.csv</t>
+          <t>TB-16502911321693301.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-1649873022406142.csv</t>
+          <t>ZB-match_5-16502911311286447.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_4-16498730207619195.csv</t>
+          <t>OB-16502911316215563.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16498730218323448.csv</t>
+          <t>ZB-match_1-165029113153358.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730224345818.csv</t>
+          <t>MM_stims-16502911328735456.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873022423521.csv</t>
+          <t>ZM_stims-1650291132860202.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730224553046.csv</t>
+          <t>MM_stims-16502911329040887.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730224345818.csv</t>
+          <t>ZM_stims-1650291132874549.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730224762533.csv</t>
+          <t>MM_stims-16502911329198735.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730224553046.csv</t>
+          <t>ZM_stims-165029113290509.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730224801018.csv</t>
+          <t>vSAT_stims-16502911329517481.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730224929938.csv</t>
+          <t>SAT_stims-1650291132936884.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730225318532.csv</t>
+          <t>SAT_stims-16502911329236815.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730225080416.csv</t>
+          <t>vSAT_stims-1650291132966182.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_06/participant_06_task_orders.xlsx
+++ b/participants/participant_06/participant_06_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502911309970775" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911328572485" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502911328572485" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502911329198735" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502911329815648" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504777862383795" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650477787817412" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504777878183773" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504777878663797" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650477787929412" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502911309611669.csv</t>
+          <t>go_stims-16504777862083795.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911309805152.csv</t>
+          <t>GNG_stims-16504777862213771.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502911309825144.csv</t>
+          <t>go_stims-1650477786222379.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911309959836.csv</t>
+          <t>GNG_stims-16504777862373767.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16502911323912656.csv</t>
+          <t>TB-16504777872603772.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16502911317623413.csv</t>
+          <t>ZB-match_0-16504777863464117.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16502911328406.csv</t>
+          <t>TB-16504777877974117.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1650291131835157.csv</t>
+          <t>ZB-match_8-16504777864104111.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_7-16502911312902994.csv</t>
+          <t>OB-165047778647541.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16502911321693301.csv</t>
+          <t>ZB-match_3-16504777862874067.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_5-16502911311286447.csv</t>
+          <t>TB-16504777876743777.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16502911316215563.csv</t>
+          <t>OB-16504777868564103.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_1-165029113153358.csv</t>
+          <t>OB-16504777865083745.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502911328735456.csv</t>
+          <t>MM_stims-16504777878334122.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291132860202.csv</t>
+          <t>ZM_stims-16504777878193784.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502911329040887.csv</t>
+          <t>MM_stims-16504777878494089.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291132874549.csv</t>
+          <t>ZM_stims-16504777878334122.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911329198735.csv</t>
+          <t>MM_stims-1650477787865376.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-165029113290509.csv</t>
+          <t>ZM_stims-16504777878494089.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911329517481.csv</t>
+          <t>vSAT_stims-1650477787914377.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291132936884.csv</t>
+          <t>SAT_stims-16504777878683748.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911329236815.csv</t>
+          <t>vSAT_stims-16504777878974116.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650291132966182.csv</t>
+          <t>SAT_stims-16504777878814113.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_06/participant_06_task_orders.xlsx
+++ b/participants/participant_06/participant_06_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504777862383795" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650477787817412" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504777878183773" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504777878663797" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650477787929412" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650996074688727" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509960768967464" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509960768967464" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509960769527245" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509960770167236" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504777862083795.csv</t>
+          <t>go_stims-1650996074648688.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777862213771.csv</t>
+          <t>GNG_stims-16509960746727293.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650477786222379.csv</t>
+          <t>go_stims-16509960746727293.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777862373767.csv</t>
+          <t>GNG_stims-1650996074688727.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16504777872603772.csv</t>
+          <t>TB-16509960768086894.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_0-16504777863464117.csv</t>
+          <t>ZB-match_3-16509960757287326.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16504777877974117.csv</t>
+          <t>OB-16509960763847232.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_8-16504777864104111.csv</t>
+          <t>ZB-match_3-16509960748247285.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-165047778647541.csv</t>
+          <t>OB-16509960760086868.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_3-16504777862874067.csv</t>
+          <t>OB-1650996076512692.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16504777876743777.csv</t>
+          <t>TB-16509960768726878.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16504777868564103.csv</t>
+          <t>ZB-match_6-1650996075904722.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16504777865083745.csv</t>
+          <t>TB-16509960767526922.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504777878334122.csv</t>
+          <t>MM_stims-16509960769127219.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777878193784.csv</t>
+          <t>ZM_stims-16509960768967464.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504777878494089.csv</t>
+          <t>MM_stims-16509960769367228.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777878334122.csv</t>
+          <t>ZM_stims-16509960769127219.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650477787865376.csv</t>
+          <t>MM_stims-16509960769527245.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777878494089.csv</t>
+          <t>ZM_stims-16509960769367228.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477787914377.csv</t>
+          <t>vSAT_stims-16509960770007365.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504777878683748.csv</t>
+          <t>SAT_stims-16509960769686978.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504777878974116.csv</t>
+          <t>vSAT_stims-16509960769847264.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504777878814113.csv</t>
+          <t>SAT_stims-16509960769527245.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_06/participant_06_task_orders.xlsx
+++ b/participants/participant_06/participant_06_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650996074688727" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509960768967464" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509960768967464" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509960769527245" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509960770167236" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511686608523495" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651168663219381" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511686632213836" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651168663267382" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511686633441713" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650996074648688.csv</t>
+          <t>go_stims-16511686608105485.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960746727293.csv</t>
+          <t>GNG_stims-16511686608351176.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509960746727293.csv</t>
+          <t>go_stims-165116866083712.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996074688727.csv</t>
+          <t>GNG_stims-16511686608503494.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16509960768086894.csv</t>
+          <t>TB-16511686631994596.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_3-16509960757287326.csv</t>
+          <t>ZB-match_5-16511686613297598.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16509960763847232.csv</t>
+          <t>OB-1651168661463012.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_3-16509960748247285.csv</t>
+          <t>OB-1651168661756671.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16509960760086868.csv</t>
+          <t>ZB-match_9-16511686610191736.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1650996076512692.csv</t>
+          <t>OB-16511686615539412.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16509960768726878.csv</t>
+          <t>TB-16511686622119231.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_6-1650996075904722.csv</t>
+          <t>TB-16511686624758446.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16509960767526922.csv</t>
+          <t>ZB-match_2-16511686609024508.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509960769127219.csv</t>
+          <t>MM_stims-16511686632352831.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960768967464.csv</t>
+          <t>ZM_stims-16511686632229013.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509960769367228.csv</t>
+          <t>MM_stims-16511686632509606.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960769127219.csv</t>
+          <t>ZM_stims-16511686632352831.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509960769527245.csv</t>
+          <t>MM_stims-16511686632663796.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960769367228.csv</t>
+          <t>ZM_stims-16511686632519596.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960770007365.csv</t>
+          <t>SAT_stims-16511686632976086.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960769686978.csv</t>
+          <t>vSAT_stims-16511686633289173.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960769847264.csv</t>
+          <t>vSAT_stims-1651168663313744.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960769527245.csv</t>
+          <t>SAT_stims-16511686632713788.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_06/participant_06_task_orders.xlsx
+++ b/participants/participant_06/participant_06_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511686608523495" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651168663219381" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511686632213836" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651168663267382" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511686633441713" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512554921067002" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512554967732973" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512554967742703" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512554968212702" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512554968982954" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511686608105485.csv</t>
+          <t>go_stims-1651255492077702.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686608351176.csv</t>
+          <t>GNG_stims-16512554920897021.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-165116866083712.csv</t>
+          <t>go_stims-16512554920907385.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686608503494.csv</t>
+          <t>GNG_stims-16512554921047344.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16511686631994596.csv</t>
+          <t>OB-16512554950632627.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_5-16511686613297598.csv</t>
+          <t>ZB-match_7-16512554929511437.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1651168661463012.csv</t>
+          <t>OB-16512554936942945.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1651168661756671.csv</t>
+          <t>ZB-match_4-16512554934351454.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_9-16511686610191736.csv</t>
+          <t>TB-16512554966512594.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16511686615539412.csv</t>
+          <t>TB-16512554957152936.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16511686622119231.csv</t>
+          <t>OB-16512554953052578.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16511686624758446.csv</t>
+          <t>TB-16512554967482963.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_2-16511686609024508.csv</t>
+          <t>ZB-match_5-16512554928201795.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511686632352831.csv</t>
+          <t>MM_stims-1651255496788298.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686632229013.csv</t>
+          <t>ZM_stims-16512554967772596.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511686632509606.csv</t>
+          <t>MM_stims-16512554968042595.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686632352831.csv</t>
+          <t>ZM_stims-16512554967892687.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511686632663796.csv</t>
+          <t>MM_stims-1651255496820294.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686632519596.csv</t>
+          <t>ZM_stims-16512554968042595.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686632976086.csv</t>
+          <t>SAT_stims-1651255496825261.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686633289173.csv</t>
+          <t>vSAT_stims-16512554968832636.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168663313744.csv</t>
+          <t>vSAT_stims-16512554968672976.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686632713788.csv</t>
+          <t>SAT_stims-16512554968513007.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_06/participant_06_task_orders.xlsx
+++ b/participants/participant_06/participant_06_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512554921067002" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512554967732973" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512554967742703" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512554968212702" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512554968982954" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-1651588922976704" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOL_TO-16515889230266583" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NB_TO-16515889250110893" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RS_TO-16515889250189002" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="GNG_TO-1651588925059338" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651255492077702.csv</t>
+          <t>SAT_stims-1651588922910724.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512554920897021.csv</t>
+          <t>vSAT_stims-1651588922945142.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512554920907385.csv</t>
+          <t>vSAT_stims-16515889229601243.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512554921047344.csv</t>
+          <t>SAT_stims-16515889229287057.csv</t>
         </is>
       </c>
     </row>
@@ -490,6 +490,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889229926255.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889229807062.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889230080884.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889229936218.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889230256886.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889230091455.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -516,7 +602,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16512554950632627.csv</t>
+          <t>OB-16515889236604848.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +612,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_7-16512554929511437.csv</t>
+          <t>TB-1651588924421247.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +622,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16512554936942945.csv</t>
+          <t>ZB-match_1-16515889234817202.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +632,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_4-16512554934351454.csv</t>
+          <t>ZB-match_1-16515889233489923.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16512554966512594.csv</t>
+          <t>TB-16515889244597301.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16512554957152936.csv</t>
+          <t>ZB-match_6-16515889235779169.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16512554953052578.csv</t>
+          <t>OB-1651588923678841.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +672,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16512554967482963.csv</t>
+          <t>OB-1651588923779183.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +682,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_5-16512554928201795.csv</t>
+          <t>TB-16515889249922717.csv</t>
         </is>
       </c>
     </row>
@@ -605,7 +691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -632,7 +718,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,93 +728,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-1651255496788298.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512554967772596.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512554968042595.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512554967892687.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-1651255496820294.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512554968042595.csv</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1651255496825261.csv</t>
+          <t>go_stims-16515889250218983.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512554968832636.csv</t>
+          <t>GNG_stims-16515889250418165.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512554968672976.csv</t>
+          <t>go_stims-16515889250438468.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16512554968513007.csv</t>
+          <t>GNG_stims-1651588925057894.csv</t>
         </is>
       </c>
     </row>
